--- a/uvispace/uvisensor/datatemp/masterfile.xlsx
+++ b/uvispace/uvisensor/datatemp/masterfile.xlsx
@@ -391,7 +391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="C20" activeCellId="0" pane="topLeft" sqref="C20"/>
@@ -655,6 +655,105 @@
         <v>12742</v>
       </c>
     </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="n">
+        <v>16879.14</v>
+      </c>
+      <c r="B24" t="n">
+        <v>255</v>
+      </c>
+      <c r="C24" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="n">
+        <v>-42.235</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="n">
+        <v>57.229</v>
+      </c>
+      <c r="B27" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="B29" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="n">
+        <v>116.591</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="n">
+        <v>-198409.563</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="n">
+        <v>129.059</v>
+      </c>
+      <c r="B32" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>

--- a/uvispace/uvisensor/datatemp/masterfile.xlsx
+++ b/uvispace/uvisensor/datatemp/masterfile.xlsx
@@ -391,7 +391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="C20" activeCellId="0" pane="topLeft" sqref="C20"/>
@@ -754,6 +754,292 @@
         <v>9</v>
       </c>
     </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="n">
+        <v>-5423.682</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="n">
+        <v>-342677.406</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="n">
+        <v>3047.174</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="n">
+        <v>-101.766</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="n">
+        <v>-746.543</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="n">
+        <v>-3214.589</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="n">
+        <v>-2075.498</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="n">
+        <v>-517.907</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="n">
+        <v>3281.745</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="n">
+        <v>412.175</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="n">
+        <v>1253.201</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="n">
+        <v>-3561.964</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="n">
+        <v>-1053.158</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="n">
+        <v>-1287.092</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="n">
+        <v>43037.367</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="n">
+        <v>149140.828</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="n">
+        <v>123136.523</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="n">
+        <v>106075.25</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="n">
+        <v>57041.84</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="n">
+        <v>54054.059</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="n">
+        <v>44017.105</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="n">
+        <v>104018.68</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="n">
+        <v>717809.25</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>

--- a/uvispace/uvisensor/datatemp/masterfile.xlsx
+++ b/uvispace/uvisensor/datatemp/masterfile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Spd Lin</t>
   </si>
@@ -31,49 +31,51 @@
     <t>Filename</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>26_05_2017_1146</t>
+  </si>
+  <si>
+    <t>26_05_2017_1149</t>
+  </si>
+  <si>
+    <t>26_05_2017_1156</t>
+  </si>
+  <si>
+    <t>26_05_2017_1157</t>
+  </si>
+  <si>
+    <t>26_05_2017_1202</t>
+  </si>
+  <si>
+    <t>26_05_2017_1206</t>
+  </si>
+  <si>
+    <t>26_05_2017_1207</t>
+  </si>
+  <si>
+    <t>26_05_2017_1221</t>
+  </si>
+  <si>
+    <t>26_05_2017_1223</t>
+  </si>
+  <si>
+    <t>26_05_2017_1224</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>26_05_2017_0945</t>
-  </si>
-  <si>
-    <t>26_05_2017_0957</t>
-  </si>
-  <si>
-    <t>26_05_2017_1009</t>
-  </si>
-  <si>
-    <t>26_05_2017_1013</t>
-  </si>
-  <si>
-    <t>26_05_2017_1015</t>
-  </si>
-  <si>
-    <t>26_05_2017_1017</t>
-  </si>
-  <si>
-    <t>26_05_2017_1027</t>
-  </si>
-  <si>
-    <t>26_05_2017_1049</t>
-  </si>
-  <si>
-    <t>26_05_2017_1101</t>
-  </si>
-  <si>
-    <t>26_05_2017_1107</t>
-  </si>
-  <si>
-    <t>26_05_2017_1122</t>
+    <t>26_05_2017_1225</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0.00" numFmtId="165"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -124,14 +126,11 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -441,19 +440,19 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E1" activeCellId="0" pane="topLeft" sqref="E1"/>
+      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1025" min="1" style="1" width="10"/>
-    <col customWidth="1" max="2" min="2" style="3" width="10"/>
-    <col customWidth="1" max="3" min="3" style="3" width="10"/>
-    <col customWidth="1" max="4" min="4" style="3" width="15"/>
-    <col customWidth="1" max="5" min="5" style="3" width="15"/>
+    <col customWidth="1" max="2" min="2" style="2" width="10"/>
+    <col customWidth="1" max="3" min="3" style="2" width="10"/>
+    <col customWidth="1" max="4" min="4" style="2" width="15"/>
+    <col customWidth="1" max="5" min="5" style="2" width="15"/>
   </cols>
   <sheetData>
-    <row customHeight="1" s="3" r="1" ht="13.8" spans="1:5">
+    <row customHeight="1" s="2" r="1" ht="13.8" spans="1:5">
       <c s="1" r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,193 +469,195 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" s="3" r="2" ht="15" spans="1:5">
-      <c s="2" r="A2" t="n">
-        <v>-262.147460938</v>
-      </c>
-      <c s="2" r="B2" t="n">
-        <v>-14.5081605911</v>
-      </c>
-      <c s="2" r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c s="2" r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c s="2" r="E2" t="s">
+    <row customHeight="1" s="2" r="2" ht="15" spans="1:5">
+      <c s="3" r="A2" t="n">
+        <v>-12172.8818359</v>
+      </c>
+      <c s="3" r="B2" t="n">
+        <v>27.9913272858</v>
+      </c>
+      <c s="3" r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="E2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c s="4" r="A3" t="n">
-        <v>2.46675872803</v>
-      </c>
-      <c s="4" r="B3" t="n">
-        <v>-0.0201388597488</v>
-      </c>
-      <c s="4" r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E3" t="s">
+    <row customHeight="1" s="2" r="3" ht="13.8" spans="1:5">
+      <c s="3" r="A3" t="n">
+        <v>28035.8457031</v>
+      </c>
+      <c s="3" r="B3" t="n">
+        <v>27.4060611725</v>
+      </c>
+      <c s="3" r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="E3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c s="4" r="A4" t="n">
-        <v>-162.789794922</v>
-      </c>
-      <c s="4" r="B4" t="n">
-        <v>0.0615426301956</v>
-      </c>
-      <c s="4" r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E4" t="s">
+    <row customHeight="1" s="2" r="4" ht="13.8" spans="1:5">
+      <c s="3" r="A4" t="n">
+        <v>13430.0166016</v>
+      </c>
+      <c s="3" r="B4" t="n">
+        <v>-64.4532089233</v>
+      </c>
+      <c s="3" r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="E4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c s="4" r="A5" t="n">
-        <v>-26385.9042969</v>
-      </c>
-      <c s="4" r="B5" t="n">
-        <v>-12.059630394</v>
-      </c>
-      <c s="4" r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E5" t="s">
+    <row customHeight="1" s="2" r="5" ht="13.8" spans="1:5">
+      <c s="3" r="A5" t="n">
+        <v>-17425.078125</v>
+      </c>
+      <c s="3" r="B5" t="n">
+        <v>0.392636060715</v>
+      </c>
+      <c s="3" r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c s="4" r="A6" t="n">
-        <v>1109.91467285</v>
-      </c>
-      <c s="4" r="B6" t="n">
-        <v>-1.18221211433</v>
-      </c>
-      <c s="4" r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E6" t="s">
+    <row customHeight="1" s="2" r="6" ht="13.8" spans="1:5">
+      <c s="3" r="A6" t="n">
+        <v>19537.421875</v>
+      </c>
+      <c s="3" r="B6" t="n">
+        <v>-92.9751739502</v>
+      </c>
+      <c s="3" r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="E6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c s="4" r="A7" t="n">
-        <v>-2180.96118164</v>
-      </c>
-      <c s="4" r="B7" t="n">
-        <v>21.9433498383</v>
-      </c>
-      <c s="4" r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E7" t="s">
+    <row customHeight="1" s="2" r="7" ht="13.8" spans="1:5">
+      <c s="3" r="A7" t="n">
+        <v>-16257.3505859</v>
+      </c>
+      <c s="3" r="B7" t="n">
+        <v>183.44291687</v>
+      </c>
+      <c s="3" r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="E7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c s="4" r="A8" t="n">
-        <v>-43.735710144</v>
-      </c>
-      <c s="4" r="B8" t="n">
-        <v>-0.298575162888</v>
-      </c>
-      <c s="4" r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E8" t="s">
+    <row customHeight="1" s="2" r="8" ht="13.8" spans="1:5">
+      <c s="3" r="A8" t="n">
+        <v>24476.0332031</v>
+      </c>
+      <c s="3" r="B8" t="n">
+        <v>3.17313098907</v>
+      </c>
+      <c s="3" r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="E8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c s="4" r="A9" t="n">
-        <v>-1446.48046875</v>
-      </c>
-      <c s="4" r="B9" t="n">
-        <v>17.9434680939</v>
-      </c>
-      <c s="4" r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E9" t="s">
+    <row customHeight="1" s="2" r="9" ht="13.8" spans="1:5">
+      <c s="3" r="A9" t="n">
+        <v>27264.7675781</v>
+      </c>
+      <c s="3" r="B9" t="n">
+        <v>40.8537483215</v>
+      </c>
+      <c s="3" r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="E9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c s="4" r="A10" t="n">
-        <v>31709.4667969</v>
-      </c>
-      <c s="4" r="B10" t="n">
-        <v>-76.2270202637</v>
-      </c>
-      <c s="4" r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E10" t="s">
+    <row customHeight="1" s="2" r="10" ht="13.8" spans="1:5">
+      <c s="3" r="A10" t="n">
+        <v>-4763.77392578</v>
+      </c>
+      <c s="3" r="B10" t="n">
+        <v>51.455619812</v>
+      </c>
+      <c s="3" r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="E10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c s="4" r="A11" t="n">
-        <v>-20.5845489502</v>
-      </c>
-      <c s="4" r="B11" t="n">
-        <v>-0.0118002891541</v>
-      </c>
-      <c s="4" r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E11" t="s">
+    <row customHeight="1" s="2" r="11" ht="13.8" spans="1:5">
+      <c s="3" r="A11" t="n">
+        <v>-26889.0019531</v>
+      </c>
+      <c s="3" r="B11" t="n">
+        <v>287.476623535</v>
+      </c>
+      <c s="3" r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c s="3" r="E11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c s="4" r="A12" t="n">
-        <v>340.821777344</v>
-      </c>
-      <c s="4" r="B12" t="n">
-        <v>-1.41657829285</v>
-      </c>
-      <c s="4" r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E12" t="s">
+    <row customHeight="1" s="2" r="12" ht="13.8" spans="1:5">
+      <c s="3" r="A12" t="n">
+        <v>-22495.7539062</v>
+      </c>
+      <c s="3" r="B12" t="n">
+        <v>4.99187326431</v>
+      </c>
+      <c s="3" r="C12" t="s">
         <v>16</v>
       </c>
-    </row>
+      <c s="3" r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c s="3" r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" s="2" r="13" ht="13.8" spans="1:5"/>
+    <row customHeight="1" s="2" r="14" ht="13.8" spans="1:5"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>

--- a/uvispace/uvisensor/datatemp/masterfile.xlsx
+++ b/uvispace/uvisensor/datatemp/masterfile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Spd Lin</t>
   </si>
@@ -65,6 +65,36 @@
   </si>
   <si>
     <t>26_05_2017_1122</t>
+  </si>
+  <si>
+    <t>26_05_2017_1302</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>26_05_2017_1304</t>
+  </si>
+  <si>
+    <t>26_05_2017_1318</t>
+  </si>
+  <si>
+    <t>26_05_2017_1319</t>
+  </si>
+  <si>
+    <t>26_05_2017_1321</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>26_05_2017_1322</t>
+  </si>
+  <si>
+    <t>26_05_2017_1323</t>
+  </si>
+  <si>
+    <t>26_05_2017_1324</t>
   </si>
 </sst>
 </file>
@@ -438,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="E1" activeCellId="0" pane="topLeft" sqref="E1"/>
@@ -657,6 +687,142 @@
         <v>16</v>
       </c>
     </row>
+    <row r="13" spans="1:5">
+      <c s="4" r="A13" t="n">
+        <v>-1583.58</v>
+      </c>
+      <c s="4" r="B13" t="n">
+        <v>-98.08</v>
+      </c>
+      <c s="4" r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c s="4" r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c s="4" r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c s="4" r="A14" t="n">
+        <v>24606.82</v>
+      </c>
+      <c s="4" r="B14" t="n">
+        <v>-41.52</v>
+      </c>
+      <c s="4" r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c s="4" r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c s="4" r="E14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c s="4" r="A15" t="n">
+        <v>14071.75</v>
+      </c>
+      <c s="4" r="B15" t="n">
+        <v>7.63</v>
+      </c>
+      <c s="4" r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c s="4" r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c s="4" r="E15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c s="4" r="A16" t="n">
+        <v>3954.1</v>
+      </c>
+      <c s="4" r="B16" t="n">
+        <v>-23.1</v>
+      </c>
+      <c s="4" r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c s="4" r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c s="4" r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c s="4" r="A17" t="n">
+        <v>12999.59</v>
+      </c>
+      <c s="4" r="B17" t="n">
+        <v>-83.64</v>
+      </c>
+      <c s="4" r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c s="4" r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c s="4" r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c s="4" r="A18" t="n">
+        <v>-380.76</v>
+      </c>
+      <c s="4" r="B18" t="n">
+        <v>15.63</v>
+      </c>
+      <c s="4" r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c s="4" r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c s="4" r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c s="4" r="A19" t="n">
+        <v>23743.07</v>
+      </c>
+      <c s="4" r="B19" t="n">
+        <v>-69.39</v>
+      </c>
+      <c s="4" r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c s="4" r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c s="4" r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c s="4" r="A20" t="n">
+        <v>28092.45</v>
+      </c>
+      <c s="4" r="B20" t="n">
+        <v>-21.95</v>
+      </c>
+      <c s="4" r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c s="4" r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c s="4" r="E20" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>

--- a/uvispace/uvisensor/datatemp/masterfile.xlsx
+++ b/uvispace/uvisensor/datatemp/masterfile.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
-  <si>
-    <t>Spd Lin</t>
-  </si>
-  <si>
-    <t>Ang Spd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+  <si>
+    <t>Date and Time</t>
   </si>
   <si>
     <t>sp_left</t>
@@ -28,84 +25,275 @@
     <t>sp_right</t>
   </si>
   <si>
+    <t>Rel Speed</t>
+  </si>
+  <si>
+    <t>Rel AnSpd</t>
+  </si>
+  <si>
     <t>Filename</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>26_05_2017_0945</t>
-  </si>
-  <si>
-    <t>26_05_2017_0957</t>
-  </si>
-  <si>
-    <t>26_05_2017_1009</t>
-  </si>
-  <si>
-    <t>26_05_2017_1013</t>
-  </si>
-  <si>
-    <t>26_05_2017_1015</t>
-  </si>
-  <si>
-    <t>26_05_2017_1017</t>
-  </si>
-  <si>
-    <t>26_05_2017_1027</t>
-  </si>
-  <si>
-    <t>26_05_2017_1049</t>
-  </si>
-  <si>
-    <t>26_05_2017_1101</t>
-  </si>
-  <si>
-    <t>26_05_2017_1107</t>
-  </si>
-  <si>
-    <t>26_05_2017_1122</t>
-  </si>
-  <si>
-    <t>26_05_2017_1302</t>
+    <t>29_05_2017_2</t>
   </si>
   <si>
     <t>160</t>
   </si>
   <si>
-    <t>26_05_2017_1304</t>
-  </si>
-  <si>
-    <t>26_05_2017_1318</t>
-  </si>
-  <si>
-    <t>26_05_2017_1319</t>
-  </si>
-  <si>
-    <t>26_05_2017_1321</t>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_2-L160-R160.xlsx'#$Sheet.J140</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_2-L160-R160.xlsx'#$Sheet.K140</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>29_05_2017_3</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_3-L160-R160.xlsx'#$Sheet.J115</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_3-L160-R160.xlsx'#$Sheet.K115</t>
+  </si>
+  <si>
+    <t>29_05_2017_4</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_4-L160-R160.xlsx'#$Sheet.J89</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_4-L160-R160.xlsx'#$Sheet.K89</t>
+  </si>
+  <si>
+    <t>29_05_2017_5</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_5-L160-R160.xlsx'#$Sheet.J226</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_5-L160-R160.xlsx'#$Sheet.K226</t>
+  </si>
+  <si>
+    <t>29_05_2017_6</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_6-L160-R160.xlsx'#$Sheet.J224</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_6-L160-R160.xlsx'#$Sheet.K224</t>
+  </si>
+  <si>
+    <t>29_05_2017_7</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_7-L160-R170.xlsx'#$Sheet.J357</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_7-L160-R170.xlsx'#$Sheet.K357</t>
+  </si>
+  <si>
+    <t>29_05_2017_8</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_8-L160-R170.xlsx'#$Sheet.J225</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_8-L160-R170.xlsx'#$Sheet.K225</t>
+  </si>
+  <si>
+    <t>29_05_2017_9</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_9-L160-R170.xlsx'#$Sheet.J221</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_9-L160-R170.xlsx'#$Sheet.K221</t>
+  </si>
+  <si>
+    <t>29_05_2017_10</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_10-L160-R170.xlsx'#$Sheet.J300</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_10-L160-R170.xlsx'#$Sheet.K300</t>
+  </si>
+  <si>
+    <t>29_05_2017_11</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_11-L160-R170.xlsx'#$Sheet.J226</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_11-L160-R170.xlsx'#$Sheet.K226</t>
+  </si>
+  <si>
+    <t>29_05_2017_12</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_12-L160-R180.xlsx'#$Sheet.J227</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_12-L160-R180.xlsx'#$Sheet.K227</t>
+  </si>
+  <si>
+    <t>29_05_2017_13</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_13-L160-R180.xlsx'#$Sheet.J227</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_13-L160-R180.xlsx'#$Sheet.K227</t>
+  </si>
+  <si>
+    <t>29_05_2017_14</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_14-L160-R180.xlsx'#$Sheet.J228</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_14-L160-R180.xlsx'#$Sheet.K228</t>
+  </si>
+  <si>
+    <t>29_05_2017_15</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t>26_05_2017_1322</t>
-  </si>
-  <si>
-    <t>26_05_2017_1323</t>
-  </si>
-  <si>
-    <t>26_05_2017_1324</t>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_15-L160-R200.xlsx'#$Sheet.J256</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_15-L160-R200.xlsx'#$Sheet.K256</t>
+  </si>
+  <si>
+    <t>29_05_2017_16</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_16-L160-R200.xlsx'#$Sheet.J133</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_16-L160-R200.xlsx'#$Sheet.K133</t>
+  </si>
+  <si>
+    <t>29_05_2017_17</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_17-L160-R200.xlsx'#$Sheet.J136</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_17-L160-R200.xlsx'#$Sheet.K136</t>
+  </si>
+  <si>
+    <t>29_05_2017_18</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_18-L160-R200.xlsx'#$Sheet.J129</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_18-L160-R200.xlsx'#$Sheet.K129</t>
+  </si>
+  <si>
+    <t>29_05_2017_19</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_19-L160-R200.xlsx'#$Sheet.J153</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_19-L160-R200.xlsx'#$Sheet.K153</t>
+  </si>
+  <si>
+    <t>29_05_2017_20</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_20-L160-R200.xlsx'#$Sheet.J138</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_20-L160-R200.xlsx'#$Sheet.K138</t>
+  </si>
+  <si>
+    <t>29_05_2017_21</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_21-L160-R200.xlsx'#$Sheet.J135</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_21-L160-R200.xlsx'#$Sheet.K135</t>
+  </si>
+  <si>
+    <t>29_05_2017_22</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_22-L160-R220.xlsx'#$Sheet.J179</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_22-L160-R220.xlsx'#$Sheet.K179</t>
+  </si>
+  <si>
+    <t>29_05_2017_23</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_23-L160-R220.xlsx'#$Sheet.J191</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_23-L160-R220.xlsx'#$Sheet.K191</t>
+  </si>
+  <si>
+    <t>29_05_2017_24</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_24-L160-R220.xlsx'#$Sheet.J161</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_24-L160-R220.xlsx'#$Sheet.K161</t>
+  </si>
+  <si>
+    <t>29_05_2017_25</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_25-L160-R220.xlsx'#$Sheet.J87</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_25-L160-R220.xlsx'#$Sheet.K87</t>
+  </si>
+  <si>
+    <t>29_05_2017_26</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_26-L160-R220.xlsx'#$Sheet.J141</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_26-L160-R220.xlsx'#$Sheet.K141</t>
+  </si>
+  <si>
+    <t>29_05_2017_27</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_27-L160-R220.xlsx'#$Sheet.J84</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_27-L160-R220.xlsx'#$Sheet.K84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0.00" numFmtId="165"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -128,21 +316,70 @@
       <family val="0"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="1"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F79E6"/>
+        <bgColor rgb="FF0066CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBF4FA"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBF4FA"/>
+        <bgColor rgb="FFDBF4FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF4143CA"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF4143CA"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -154,18 +391,49 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -468,362 +736,809 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E1" activeCellId="0" pane="topLeft" sqref="E1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="1" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
+      <selection activeCell="A12" activeCellId="0" pane="bottomLeft" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="10"/>
-    <col customWidth="1" max="2" min="2" style="3" width="10"/>
-    <col customWidth="1" max="3" min="3" style="3" width="10"/>
-    <col customWidth="1" max="4" min="4" style="3" width="15"/>
-    <col customWidth="1" max="5" min="5" style="3" width="15"/>
+    <col customWidth="1" max="1" min="1" style="1" width="18"/>
+    <col customWidth="1" max="7" min="2" style="1" width="10"/>
+    <col customWidth="1" max="3" min="3" style="11" width="10"/>
+    <col customWidth="1" max="4" min="4" style="11" width="10"/>
+    <col customWidth="1" max="5" min="5" style="11" width="10"/>
+    <col customWidth="1" max="6" min="6" style="11" width="10"/>
+    <col customWidth="1" max="7" min="7" style="11" width="10"/>
+    <col customWidth="1" max="1025" min="8" style="1" width="8.5748987854251"/>
   </cols>
   <sheetData>
-    <row customHeight="1" s="3" r="1" ht="13.8" spans="1:5">
-      <c s="1" r="A1" t="s">
+    <row customHeight="1" s="11" r="1" ht="13.8" spans="1:8">
+      <c s="2" r="A1" t="s">
         <v>0</v>
       </c>
-      <c s="1" r="B1" t="s">
+      <c s="2" r="B1" t="s">
         <v>1</v>
       </c>
-      <c s="1" r="C1" t="s">
+      <c s="2" r="C1" t="s">
         <v>2</v>
       </c>
-      <c s="1" r="D1" t="s">
+      <c s="2" r="D1" t="s">
         <v>3</v>
       </c>
-      <c s="1" r="E1" t="s">
+      <c s="2" r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row customHeight="1" s="3" r="2" ht="15" spans="1:5">
-      <c s="2" r="A2" t="n">
-        <v>-262.147460938</v>
-      </c>
-      <c s="2" r="B2" t="n">
-        <v>-14.5081605911</v>
-      </c>
-      <c s="2" r="C2" t="s">
+      <c s="2" r="F1" t="s">
         <v>5</v>
       </c>
-      <c s="2" r="D2" t="s">
+      <c s="2" r="G1" t="s">
         <v>5</v>
       </c>
-      <c s="2" r="E2" t="s">
+      <c s="1" r="H1" t="n"/>
+    </row>
+    <row customHeight="1" s="11" r="2" ht="13.8" spans="1:8">
+      <c s="9" r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c s="4" r="A3" t="n">
-        <v>2.46675872803</v>
-      </c>
-      <c s="4" r="B3" t="n">
-        <v>-0.0201388597488</v>
-      </c>
-      <c s="4" r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c s="4" r="A4" t="n">
-        <v>-162.789794922</v>
-      </c>
-      <c s="4" r="B4" t="n">
-        <v>0.0615426301956</v>
-      </c>
-      <c s="4" r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E4" t="s">
+      <c s="9" r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c s="9" r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c s="9" r="D2">
+        <f>INDIRECT(F2)</f>
+        <v/>
+      </c>
+      <c s="9" r="E2">
+        <f>INDIRECT(G2)</f>
+        <v/>
+      </c>
+      <c s="10" r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c s="4" r="A5" t="n">
-        <v>-26385.9042969</v>
-      </c>
-      <c s="4" r="B5" t="n">
-        <v>-12.059630394</v>
-      </c>
-      <c s="4" r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E5" t="s">
+      <c s="10" r="G2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c s="4" r="A6" t="n">
-        <v>1109.91467285</v>
-      </c>
-      <c s="4" r="B6" t="n">
-        <v>-1.18221211433</v>
-      </c>
-      <c s="4" r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c s="4" r="A7" t="n">
-        <v>-2180.96118164</v>
-      </c>
-      <c s="4" r="B7" t="n">
-        <v>21.9433498383</v>
-      </c>
-      <c s="4" r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E7" t="s">
+      <c s="1" r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" s="11" r="3" ht="13.8" spans="1:8">
+      <c s="7" r="A3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c s="4" r="A8" t="n">
-        <v>-43.735710144</v>
-      </c>
-      <c s="4" r="B8" t="n">
-        <v>-0.298575162888</v>
-      </c>
-      <c s="4" r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E8" t="s">
+      <c s="7" r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c s="7" r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c s="7" r="D3">
+        <f>INDIRECT(F3)</f>
+        <v/>
+      </c>
+      <c s="7" r="E3">
+        <f>INDIRECT(G3)</f>
+        <v/>
+      </c>
+      <c s="8" r="F3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c s="4" r="A9" t="n">
-        <v>-1446.48046875</v>
-      </c>
-      <c s="4" r="B9" t="n">
-        <v>17.9434680939</v>
-      </c>
-      <c s="4" r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E9" t="s">
+      <c s="8" r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c s="4" r="A10" t="n">
-        <v>31709.4667969</v>
-      </c>
-      <c s="4" r="B10" t="n">
-        <v>-76.2270202637</v>
-      </c>
-      <c s="4" r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E10" t="s">
+      <c s="1" r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" s="11" r="4" ht="13.8" spans="1:8">
+      <c s="9" r="A4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c s="4" r="A11" t="n">
-        <v>-20.5845489502</v>
-      </c>
-      <c s="4" r="B11" t="n">
-        <v>-0.0118002891541</v>
-      </c>
-      <c s="4" r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E11" t="s">
+      <c s="9" r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c s="9" r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c s="9" r="D4">
+        <f>INDIRECT(F4)</f>
+        <v/>
+      </c>
+      <c s="9" r="E4">
+        <f>INDIRECT(G4)</f>
+        <v/>
+      </c>
+      <c s="10" r="F4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c s="4" r="A12" t="n">
-        <v>340.821777344</v>
-      </c>
-      <c s="4" r="B12" t="n">
-        <v>-1.41657829285</v>
-      </c>
-      <c s="4" r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E12" t="s">
+      <c s="10" r="G4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c s="4" r="A13" t="n">
-        <v>-1583.58</v>
-      </c>
-      <c s="4" r="B13" t="n">
-        <v>-98.08</v>
-      </c>
-      <c s="4" r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" r="E13" t="s">
+      <c s="1" r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" s="11" r="5" ht="13.8" spans="1:8">
+      <c s="7" r="A5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c s="4" r="A14" t="n">
-        <v>24606.82</v>
-      </c>
-      <c s="4" r="B14" t="n">
-        <v>-41.52</v>
-      </c>
-      <c s="4" r="C14" t="s">
+      <c s="7" r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c s="7" r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c s="7" r="D5">
+        <f>INDIRECT(F5)</f>
+        <v/>
+      </c>
+      <c s="7" r="E5">
+        <f>INDIRECT(G5)</f>
+        <v/>
+      </c>
+      <c s="8" r="F5" t="s">
         <v>18</v>
       </c>
-      <c s="4" r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c s="4" r="E14" t="s">
+      <c s="8" r="G5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c s="4" r="A15" t="n">
-        <v>14071.75</v>
-      </c>
-      <c s="4" r="B15" t="n">
-        <v>7.63</v>
-      </c>
-      <c s="4" r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c s="4" r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c s="4" r="E15" t="s">
+      <c s="1" r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" s="11" r="6" ht="14.9" spans="1:8">
+      <c s="9" r="A6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c s="4" r="A16" t="n">
-        <v>3954.1</v>
-      </c>
-      <c s="4" r="B16" t="n">
-        <v>-23.1</v>
-      </c>
-      <c s="4" r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c s="4" r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c s="4" r="E16" t="s">
+      <c s="9" r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c s="9" r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c s="9" r="D6">
+        <f>INDIRECT(F6)</f>
+        <v/>
+      </c>
+      <c s="9" r="E6">
+        <f>INDIRECT(G6)</f>
+        <v/>
+      </c>
+      <c s="10" r="F6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c s="4" r="A17" t="n">
-        <v>12999.59</v>
-      </c>
-      <c s="4" r="B17" t="n">
-        <v>-83.64</v>
-      </c>
-      <c s="4" r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c s="4" r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c s="4" r="E17" t="s">
+      <c s="10" r="G6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c s="4" r="A18" t="n">
-        <v>-380.76</v>
-      </c>
-      <c s="4" r="B18" t="n">
-        <v>15.63</v>
-      </c>
-      <c s="4" r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c s="4" r="D18" t="s">
+      <c s="1" r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" s="11" r="7" ht="13.8" spans="1:8">
+      <c s="7" r="A7" t="s">
         <v>23</v>
       </c>
-      <c s="4" r="E18" t="s">
+      <c s="7" r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c s="7" r="C7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c s="4" r="A19" t="n">
-        <v>23743.07</v>
-      </c>
-      <c s="4" r="B19" t="n">
-        <v>-69.39</v>
-      </c>
-      <c s="4" r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c s="4" r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c s="4" r="E19" t="s">
+      <c s="7" r="D7">
+        <f>INDIRECT(F7)</f>
+        <v/>
+      </c>
+      <c s="7" r="E7">
+        <f>INDIRECT(G7)</f>
+        <v/>
+      </c>
+      <c s="8" r="F7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c s="4" r="A20" t="n">
-        <v>28092.45</v>
-      </c>
-      <c s="4" r="B20" t="n">
-        <v>-21.95</v>
-      </c>
-      <c s="4" r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c s="4" r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c s="4" r="E20" t="s">
+      <c s="8" r="G7" t="s">
         <v>26</v>
       </c>
+      <c s="1" r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" s="11" r="8" ht="13.8" spans="1:8">
+      <c s="9" r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c s="9" r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c s="9" r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c s="9" r="D8">
+        <f>INDIRECT(F8)</f>
+        <v/>
+      </c>
+      <c s="9" r="E8">
+        <f>INDIRECT(G8)</f>
+        <v/>
+      </c>
+      <c s="10" r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c s="10" r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c s="1" r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" s="11" r="9" ht="13.8" spans="1:8">
+      <c s="7" r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c s="7" r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c s="7" r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c s="7" r="D9">
+        <f>INDIRECT(F9)</f>
+        <v/>
+      </c>
+      <c s="7" r="E9">
+        <f>INDIRECT(G9)</f>
+        <v/>
+      </c>
+      <c s="8" r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c s="8" r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c s="1" r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" s="11" r="10" ht="13.8" spans="1:8">
+      <c s="9" r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c s="9" r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c s="9" r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c s="9" r="D10">
+        <f>INDIRECT(F10)</f>
+        <v/>
+      </c>
+      <c s="9" r="E10">
+        <f>INDIRECT(G10)</f>
+        <v/>
+      </c>
+      <c s="10" r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c s="10" r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c s="1" r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" s="11" r="11" ht="13.8" spans="1:8">
+      <c s="7" r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c s="7" r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c s="7" r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c s="7" r="D11">
+        <f>INDIRECT(F11)</f>
+        <v/>
+      </c>
+      <c s="7" r="E11">
+        <f>INDIRECT(G11)</f>
+        <v/>
+      </c>
+      <c s="8" r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c s="8" r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c s="1" r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" s="11" r="12" ht="13.8" spans="1:8">
+      <c s="7" r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c s="7" r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c s="7" r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c s="7" r="D12">
+        <f>INDIRECT(F12)</f>
+        <v/>
+      </c>
+      <c s="7" r="E12">
+        <f>INDIRECT(G12)</f>
+        <v/>
+      </c>
+      <c s="8" r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c s="8" r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c s="1" r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" s="11" r="13" ht="13.8" spans="1:8">
+      <c s="9" r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c s="9" r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c s="9" r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c s="9" r="D13">
+        <f>INDIRECT(F13)</f>
+        <v/>
+      </c>
+      <c s="9" r="E13">
+        <f>INDIRECT(G13)</f>
+        <v/>
+      </c>
+      <c s="10" r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c s="10" r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c s="1" r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" s="11" r="14" ht="13.8" spans="1:8">
+      <c s="7" r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c s="7" r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c s="7" r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c s="7" r="D14">
+        <f>INDIRECT(F14)</f>
+        <v/>
+      </c>
+      <c s="7" r="E14">
+        <f>INDIRECT(G14)</f>
+        <v/>
+      </c>
+      <c s="8" r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c s="8" r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c s="1" r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c s="12" r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c s="12" r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c s="12" r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c s="12" r="D15">
+        <f>INDIRECT(F15)
+</f>
+        <v/>
+      </c>
+      <c s="12" r="E15">
+        <f>INDIRECT(G15)
+</f>
+        <v/>
+      </c>
+      <c s="13" r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c s="13" r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c s="14" r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c s="14" r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c s="14" r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c s="14" r="D16">
+        <f>INDIRECT(F16)
+</f>
+        <v/>
+      </c>
+      <c s="14" r="E16">
+        <f>INDIRECT(G16)
+</f>
+        <v/>
+      </c>
+      <c s="15" r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c s="15" r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c s="12" r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c s="12" r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c s="12" r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c s="12" r="D17">
+        <f>INDIRECT(F17)
+</f>
+        <v/>
+      </c>
+      <c s="12" r="E17">
+        <f>INDIRECT(G17)
+</f>
+        <v/>
+      </c>
+      <c s="13" r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c s="13" r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c s="14" r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c s="14" r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c s="14" r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c s="14" r="D18">
+        <f>INDIRECT(F18)
+</f>
+        <v/>
+      </c>
+      <c s="14" r="E18">
+        <f>INDIRECT(G18)
+</f>
+        <v/>
+      </c>
+      <c s="15" r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c s="15" r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c s="12" r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c s="12" r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c s="12" r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c s="12" r="D19">
+        <f>INDIRECT(F19)
+</f>
+        <v/>
+      </c>
+      <c s="12" r="E19">
+        <f>INDIRECT(G19)
+</f>
+        <v/>
+      </c>
+      <c s="13" r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c s="13" r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c s="14" r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c s="14" r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c s="14" r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c s="14" r="D20">
+        <f>INDIRECT(F20)
+</f>
+        <v/>
+      </c>
+      <c s="14" r="E20">
+        <f>INDIRECT(G20)
+</f>
+        <v/>
+      </c>
+      <c s="15" r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c s="15" r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c s="12" r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c s="12" r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c s="12" r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c s="12" r="D21">
+        <f>INDIRECT(F21)
+</f>
+        <v/>
+      </c>
+      <c s="12" r="E21">
+        <f>INDIRECT(G21)
+</f>
+        <v/>
+      </c>
+      <c s="13" r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c s="13" r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c s="14" r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c s="14" r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c s="14" r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c s="14" r="D22">
+        <f>INDIRECT(F22)
+</f>
+        <v/>
+      </c>
+      <c s="14" r="E22">
+        <f>INDIRECT(G22)
+</f>
+        <v/>
+      </c>
+      <c s="15" r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c s="15" r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c s="12" r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c s="12" r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c s="12" r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c s="12" r="D23">
+        <f>INDIRECT(F23)
+</f>
+        <v/>
+      </c>
+      <c s="12" r="E23">
+        <f>INDIRECT(G23)
+</f>
+        <v/>
+      </c>
+      <c s="13" r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c s="13" r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c s="14" r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c s="14" r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c s="14" r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c s="14" r="D24">
+        <f>INDIRECT(F24)
+</f>
+        <v/>
+      </c>
+      <c s="14" r="E24">
+        <f>INDIRECT(G24)
+</f>
+        <v/>
+      </c>
+      <c s="15" r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c s="15" r="G24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c s="12" r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c s="12" r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c s="12" r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c s="12" r="D25">
+        <f>INDIRECT(F25)
+</f>
+        <v/>
+      </c>
+      <c s="12" r="E25">
+        <f>INDIRECT(G25)
+</f>
+        <v/>
+      </c>
+      <c s="13" r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c s="13" r="G25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c s="14" r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c s="14" r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c s="14" r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c s="14" r="D26">
+        <f>INDIRECT(F26)
+</f>
+        <v/>
+      </c>
+      <c s="14" r="E26">
+        <f>INDIRECT(G26)
+</f>
+        <v/>
+      </c>
+      <c s="15" r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c s="15" r="G26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c s="12" r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c s="12" r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c s="12" r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c s="12" r="D27">
+        <f>INDIRECT(F27)
+</f>
+        <v/>
+      </c>
+      <c s="12" r="E27">
+        <f>INDIRECT(G27)
+</f>
+        <v/>
+      </c>
+      <c s="13" r="F27" t="s">
+        <v>88</v>
+      </c>
+      <c s="13" r="G27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_6-L160-R160.xlsx'#$Sheet.J224" ref="F6" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/29_05_2017_6-L160-R160.xlsx'#$Sheet.K224" ref="G6" r:id="rId2"/>
+  </hyperlinks>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
   <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
